--- a/LaTeX/data/weapon-raw-data.xlsx
+++ b/LaTeX/data/weapon-raw-data.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54132112-2697-4330-BA99-396FBBDD7901}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01921F8F-06CC-43D9-8E04-397132961A4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CSGO" sheetId="2" r:id="rId1"/>
-    <sheet name="other" sheetId="3" r:id="rId2"/>
+    <sheet name="Real World" sheetId="3" r:id="rId1"/>
+    <sheet name="CSGO" sheetId="2" r:id="rId2"/>
+    <sheet name="Battlefield 1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">other!$A$1:$O$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Real World'!$A$1:$O$104</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -801,8 +801,116 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{1123C3BA-E95E-498D-861A-5618B5FD32DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bullet?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{CFB01717-3529-4CE6-B811-15042609DE25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Time it takes to be ready after weapon switch</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{EE6FCBE8-234D-4217-82B6-88D7FD9E0605}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Horizontal pellet dispersion (for shotguns)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{65B529E6-649E-45BF-97F1-8D631EF255E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Vertical pellet dispersion (for shotguns)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="648">
   <si>
     <t>MaxPlayerSpeed</t>
   </si>
@@ -2683,6 +2791,81 @@
   <si>
     <t>6+6+1 (3” shells)</t>
   </si>
+  <si>
+    <t>Damage Points</t>
+  </si>
+  <si>
+    <t>Firerate</t>
+  </si>
+  <si>
+    <t>Num of Pellets</t>
+  </si>
+  <si>
+    <t>Muzzle Velocity</t>
+  </si>
+  <si>
+    <t>Bullet drop</t>
+  </si>
+  <si>
+    <t>Drag Coeff</t>
+  </si>
+  <si>
+    <t>Mag Size</t>
+  </si>
+  <si>
+    <t>Projectile</t>
+  </si>
+  <si>
+    <t>Deploy time</t>
+  </si>
+  <si>
+    <t>Hor. Dispersion</t>
+  </si>
+  <si>
+    <t>Ver. Dispersion</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>Recoil</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>With Ammo</t>
+  </si>
+  <si>
+    <t>Single Bullet</t>
+  </si>
+  <si>
+    <t>M1918 Automatico</t>
+  </si>
+  <si>
+    <t>9x19mm_Gilsenti</t>
+  </si>
+  <si>
+    <t>0.65 s</t>
+  </si>
 </sst>
 </file>
 
@@ -2694,7 +2877,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2770,6 +2953,53 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF9000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2809,7 +3039,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2882,15 +3112,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2972,19 +3193,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -3023,13 +3231,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3107,29 +3326,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3137,13 +3351,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3166,14 +3373,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3456,15 +3690,3278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1865DC94-FF67-48F0-AC98-AD5207862D79}">
+  <dimension ref="A1:O104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="36" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="29">
+        <v>30</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="37">
+        <v>15</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="37">
+        <v>7</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="37">
+        <v>8</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="37">
+        <v>30</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="37">
+        <v>20</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="37">
+        <v>10</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="69"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="69"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="69"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>436</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="69"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="69"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="69"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="69"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="37">
+        <v>30</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="69"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="37">
+        <v>30</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="69"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="37">
+        <v>30</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="69"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="37">
+        <v>30</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="37">
+        <v>30</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="69"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="37">
+        <v>30</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="69"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="37">
+        <v>30</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="69"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="37">
+        <v>30</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="69"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="37">
+        <v>30</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="69"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="69"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>457</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="37">
+        <v>10</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="37">
+        <v>10</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="69"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="69"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="69"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>468</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="69"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="69"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="69"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" s="37">
+        <v>10</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="69"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="37">
+        <v>10</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="69"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="69"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="69"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="69"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="69"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="I50" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="69"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="37"/>
+      <c r="I51" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="69"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" s="37">
+        <v>20</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="69"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="I53" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="69"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="I54" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="69"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I55" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="69"/>
+    </row>
+    <row r="56" spans="1:12" s="55" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
+        <v>559</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="E56" s="53" t="s">
+        <v>503</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="I56" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="69"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="I57" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="69"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="69"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="69"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="69"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="G61" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="69"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="I62" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="69"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="I63" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="69"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G64" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="69"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="E65" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="69"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="E66" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="69"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G67" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="69"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="E68" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G68" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="H68" s="37"/>
+      <c r="I68" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="69"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="H69" s="37"/>
+      <c r="I69" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="69"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="I70" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="69"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G71" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H71" s="37"/>
+      <c r="I71" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="69"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H72" s="37"/>
+      <c r="I72" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="69"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="E73" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="I73" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="69"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="E74" s="46" t="s">
+        <v>535</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G74" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="I74" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="69"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G75" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="H75" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="I75" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="69"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>538</v>
+      </c>
+      <c r="E76" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="H76" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="I76" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="69"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G77" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="H77" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="I77" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="69"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="H78" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="I78" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="69"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="H79" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="I79" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="69"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="H80" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I80" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="69"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="H81" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I81" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="69"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="H82" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I82" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="69"/>
+    </row>
+    <row r="83" spans="1:12" s="55" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="E83" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="F83" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G83" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="H83" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="I83" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="69"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G84" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="H84" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I84" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="69"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="H85" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I85" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="69"/>
+    </row>
+    <row r="86" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="B86" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="C86" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G86" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="H86" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I86" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="69"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B87" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="E87" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="H87" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I87" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="69"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="E88" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="F88" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="H88" s="37"/>
+      <c r="I88" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="69"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="E89" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="F89" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="H89" s="37"/>
+      <c r="I89" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="69"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="E90" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G90" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="H90" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="I90" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="69"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="F91" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="H91" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="I91" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="69"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C92" s="37"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="C93" s="71" t="s">
+        <v>561</v>
+      </c>
+      <c r="D93" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="E93" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="F93" s="71" t="s">
+        <v>568</v>
+      </c>
+      <c r="G93" s="71" t="s">
+        <v>565</v>
+      </c>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71"/>
+      <c r="K93" s="71"/>
+      <c r="L93" s="36" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C94" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="71" t="s">
+        <v>570</v>
+      </c>
+      <c r="E94" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="F94" s="71" t="s">
+        <v>568</v>
+      </c>
+      <c r="G94" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71"/>
+      <c r="K94" s="71"/>
+      <c r="L94" s="36" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="C95" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" s="71" t="s">
+        <v>572</v>
+      </c>
+      <c r="E95" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="F95" s="71" t="s">
+        <v>568</v>
+      </c>
+      <c r="G95" s="71" t="s">
+        <v>565</v>
+      </c>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71"/>
+      <c r="K95" s="71"/>
+      <c r="L95" s="36" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="C96" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="E96" s="71" t="s">
+        <v>574</v>
+      </c>
+      <c r="F96" s="71" t="s">
+        <v>568</v>
+      </c>
+      <c r="G96" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>573</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>586</v>
+      </c>
+      <c r="D97" s="71" t="s">
+        <v>577</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>578</v>
+      </c>
+      <c r="F97" s="71" t="s">
+        <v>576</v>
+      </c>
+      <c r="G97" s="71" t="s">
+        <v>569</v>
+      </c>
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71"/>
+      <c r="K97" s="71"/>
+      <c r="L97" s="36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="C98" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" s="71" t="s">
+        <v>572</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>563</v>
+      </c>
+      <c r="F98" s="71" t="s">
+        <v>580</v>
+      </c>
+      <c r="G98" s="71" t="s">
+        <v>581</v>
+      </c>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71"/>
+      <c r="K98" s="71"/>
+      <c r="L98" s="36" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="C99" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="D99" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="E99" s="71" t="s">
+        <v>590</v>
+      </c>
+      <c r="F99" s="71" t="s">
+        <v>580</v>
+      </c>
+      <c r="G99" s="71" t="s">
+        <v>588</v>
+      </c>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="71"/>
+      <c r="L99" s="36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="C100" s="71" t="s">
+        <v>600</v>
+      </c>
+      <c r="D100" s="71" t="s">
+        <v>599</v>
+      </c>
+      <c r="E100" s="71" t="s">
+        <v>598</v>
+      </c>
+      <c r="F100" s="71" t="s">
+        <v>568</v>
+      </c>
+      <c r="G100" s="71" t="s">
+        <v>588</v>
+      </c>
+      <c r="H100" s="71"/>
+      <c r="I100" s="71"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="36" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>605</v>
+      </c>
+      <c r="C101" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="D101" s="71" t="s">
+        <v>603</v>
+      </c>
+      <c r="E101" s="71" t="s">
+        <v>604</v>
+      </c>
+      <c r="F101" s="71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G101" s="71" t="s">
+        <v>622</v>
+      </c>
+      <c r="H101" s="71"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="36" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>610</v>
+      </c>
+      <c r="C102" s="71" t="s">
+        <v>607</v>
+      </c>
+      <c r="D102" s="71" t="s">
+        <v>608</v>
+      </c>
+      <c r="E102" s="71" t="s">
+        <v>609</v>
+      </c>
+      <c r="F102" s="71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G102" s="71" t="s">
+        <v>621</v>
+      </c>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="36" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>615</v>
+      </c>
+      <c r="C103" s="71" t="s">
+        <v>612</v>
+      </c>
+      <c r="D103" s="71" t="s">
+        <v>613</v>
+      </c>
+      <c r="E103" s="71" t="s">
+        <v>614</v>
+      </c>
+      <c r="F103" s="71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G103" s="71" t="s">
+        <v>620</v>
+      </c>
+      <c r="H103" s="71"/>
+      <c r="I103" s="71"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="36" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>617</v>
+      </c>
+      <c r="D104" s="71" t="s">
+        <v>603</v>
+      </c>
+      <c r="E104" s="71" t="s">
+        <v>604</v>
+      </c>
+      <c r="F104" s="71" t="s">
+        <v>601</v>
+      </c>
+      <c r="G104" s="71" t="s">
+        <v>620</v>
+      </c>
+      <c r="H104" s="71"/>
+      <c r="I104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="36" t="s">
+        <v>619</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O104" xr:uid="{5A7AC700-AF53-4611-8BE7-90A936EC9D18}"/>
+  <mergeCells count="2">
+    <mergeCell ref="L8:L46"/>
+    <mergeCell ref="L47:L91"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L8" r:id="rId1" xr:uid="{2381A80A-08B7-49EA-85C8-703C52A7A630}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4264D9E-99D0-4DE3-8445-CB2B869F37F7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG15" sqref="AG15"/>
+      <selection pane="topRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6786,3275 +10283,196 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A41" r:id="rId1" location="gid=0" xr:uid="{BB6FBF0D-3236-4C6D-BB43-A4F1AC530100}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1865DC94-FF67-48F0-AC98-AD5207862D79}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O104"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E5BF2B-75F3-4F33-9FD6-010EBC76FA66}">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="18" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18" style="36" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="36"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:21" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="58"/>
+      <c r="B1" s="61" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61" t="s">
+        <v>635</v>
+      </c>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="61"/>
+    </row>
+    <row r="2" spans="1:21" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="29">
-        <v>30</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="38">
-        <v>15</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="38">
-        <v>7</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="64"/>
-    </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="38">
-        <v>8</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="64"/>
-    </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="64"/>
-    </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="64"/>
-    </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="38">
-        <v>30</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="64"/>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="38">
-        <v>20</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="64"/>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="38">
-        <v>10</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="64"/>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="64"/>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="64"/>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="64"/>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="64"/>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>435</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="64"/>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="64"/>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>437</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="64"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="64"/>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>439</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="64"/>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>426</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="38">
-        <v>30</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="64"/>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="38">
-        <v>30</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="64"/>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>425</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="38">
-        <v>30</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="64"/>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="38">
-        <v>30</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="64"/>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="38">
-        <v>30</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="64"/>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="38">
-        <v>30</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="64"/>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="38">
-        <v>30</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="64"/>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="38">
-        <v>30</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="I33" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="64"/>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>453</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="38">
-        <v>30</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="64"/>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="64"/>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="38">
-        <v>10</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="64"/>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="38">
-        <v>10</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="64"/>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="64"/>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="64"/>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>468</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="64"/>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>477</v>
-      </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="64"/>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>478</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="64"/>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="G43" s="38">
-        <v>10</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="64"/>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="G44" s="38">
-        <v>10</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="64"/>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="64"/>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>560</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="64"/>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="F47" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="F48" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="I48" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="64"/>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B49" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="H49" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="I49" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="64"/>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="I50" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="64"/>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="64"/>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G52" s="38">
-        <v>20</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="64"/>
-    </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>557</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>498</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="64"/>
-    </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>500</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="64"/>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="G55" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="64"/>
-    </row>
-    <row r="56" spans="1:12" s="61" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="62" t="s">
-        <v>559</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>504</v>
-      </c>
-      <c r="E56" s="59" t="s">
-        <v>503</v>
-      </c>
-      <c r="F56" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="G56" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="H56" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="I56" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="64"/>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="H57" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="I57" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="64"/>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>559</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="C58" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>506</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="F58" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="G58" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="H58" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="I58" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="64"/>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>509</v>
-      </c>
-      <c r="E59" s="49" t="s">
-        <v>510</v>
-      </c>
-      <c r="F59" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="H59" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="I59" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="64"/>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>511</v>
-      </c>
-      <c r="F60" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="G60" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="H60" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="I60" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="64"/>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="F61" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="G61" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="H61" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="I61" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="64"/>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="E62" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="F62" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="I62" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="64"/>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>281</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="H63" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="I63" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="64"/>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>516</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>517</v>
-      </c>
-      <c r="F64" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="H64" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="I64" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="64"/>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>518</v>
-      </c>
-      <c r="E65" s="49" t="s">
-        <v>515</v>
-      </c>
-      <c r="F65" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="G65" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="H65" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="I65" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="64"/>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" s="49" t="s">
-        <v>519</v>
-      </c>
-      <c r="E66" s="49" t="s">
-        <v>520</v>
-      </c>
-      <c r="F66" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="G66" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="H66" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="64"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>521</v>
-      </c>
-      <c r="E67" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="G67" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="H67" s="38"/>
-      <c r="I67" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="64"/>
-    </row>
-    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>524</v>
-      </c>
-      <c r="F68" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="G68" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="64"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>525</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="G69" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="H69" s="38"/>
-      <c r="I69" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="64"/>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="E70" s="49" t="s">
-        <v>527</v>
-      </c>
-      <c r="F70" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G70" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="H70" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="64"/>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B71" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>528</v>
-      </c>
-      <c r="E71" s="49" t="s">
-        <v>529</v>
-      </c>
-      <c r="F71" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="G71" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="H71" s="38"/>
-      <c r="I71" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="64"/>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>531</v>
-      </c>
-      <c r="F72" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="G72" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="64"/>
-    </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B73" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="D73" s="49" t="s">
-        <v>532</v>
-      </c>
-      <c r="E73" s="49" t="s">
-        <v>533</v>
-      </c>
-      <c r="F73" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G73" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="H73" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="I73" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="64"/>
-    </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>534</v>
-      </c>
-      <c r="E74" s="49" t="s">
-        <v>535</v>
-      </c>
-      <c r="F74" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="G74" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="H74" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="I74" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="64"/>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="B75" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="D75" s="49" t="s">
-        <v>536</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>537</v>
-      </c>
-      <c r="F75" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="G75" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="H75" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="I75" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="64"/>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="D76" s="49" t="s">
-        <v>538</v>
-      </c>
-      <c r="E76" s="49" t="s">
-        <v>491</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G76" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="H76" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="I76" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="64"/>
-    </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B77" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="D77" s="49" t="s">
-        <v>539</v>
-      </c>
-      <c r="E77" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="F77" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G77" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="H77" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="64"/>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="E78" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="F78" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G78" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="H78" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="I78" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="64"/>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B79" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="D79" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="E79" s="49" t="s">
-        <v>496</v>
-      </c>
-      <c r="F79" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G79" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="H79" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="I79" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="64"/>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B80" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="E80" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="F80" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="G80" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="H80" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I80" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="64"/>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B81" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="F81" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="G81" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="H81" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I81" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="64"/>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B82" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="E82" s="48" t="s">
-        <v>546</v>
-      </c>
-      <c r="F82" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="G82" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="H82" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I82" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="64"/>
-    </row>
-    <row r="83" spans="1:12" s="61" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="D83" s="58" t="s">
-        <v>547</v>
-      </c>
-      <c r="E83" s="58" t="s">
-        <v>545</v>
-      </c>
-      <c r="F83" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="G83" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="H83" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="I83" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="64"/>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>368</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="D84" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="E84" s="49" t="s">
-        <v>545</v>
-      </c>
-      <c r="F84" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="G84" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="H84" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I84" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="64"/>
-    </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B85" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="D85" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="E85" s="49" t="s">
-        <v>549</v>
-      </c>
-      <c r="F85" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="G85" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="H85" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I85" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="64"/>
-    </row>
-    <row r="86" spans="1:12" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="B86" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="C86" s="54" t="s">
-        <v>375</v>
-      </c>
-      <c r="D86" s="55" t="s">
-        <v>543</v>
-      </c>
-      <c r="E86" s="55" t="s">
-        <v>545</v>
-      </c>
-      <c r="F86" s="54" t="s">
-        <v>356</v>
-      </c>
-      <c r="G86" s="54" t="s">
-        <v>374</v>
-      </c>
-      <c r="H86" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="I86" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="64"/>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B87" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="C87" s="49" t="s">
-        <v>375</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>543</v>
-      </c>
-      <c r="E87" s="49" t="s">
-        <v>545</v>
-      </c>
-      <c r="F87" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="G87" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="H87" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I87" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="64"/>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B88" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="C88" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="D88" s="49" t="s">
-        <v>550</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>551</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="G88" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="H88" s="38"/>
-      <c r="I88" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="64"/>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B89" s="47" t="s">
+      <c r="B2" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>642</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>644</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>641</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>638</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>900</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>380</v>
       </c>
-      <c r="C89" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>552</v>
-      </c>
-      <c r="E89" s="49" t="s">
-        <v>551</v>
-      </c>
-      <c r="F89" s="49" t="s">
-        <v>381</v>
-      </c>
-      <c r="G89" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="H89" s="38"/>
-      <c r="I89" s="48" t="s">
-        <v>355</v>
-      </c>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="64"/>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B90" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="D90" s="49" t="s">
-        <v>553</v>
-      </c>
-      <c r="E90" s="49" t="s">
-        <v>546</v>
-      </c>
-      <c r="F90" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="G90" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="H90" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="I90" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="64"/>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B91" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>553</v>
-      </c>
-      <c r="E91" s="49" t="s">
-        <v>546</v>
-      </c>
-      <c r="F91" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="G91" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="H91" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="I91" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="64"/>
-    </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="C93" s="47" t="s">
-        <v>561</v>
-      </c>
-      <c r="D93" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="F93" s="47" t="s">
-        <v>568</v>
-      </c>
-      <c r="G93" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="36" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B94" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="C94" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="E94" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="F94" s="47" t="s">
-        <v>568</v>
-      </c>
-      <c r="G94" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="36" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>571</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="E95" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="F95" s="47" t="s">
-        <v>568</v>
-      </c>
-      <c r="G95" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="36" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>575</v>
-      </c>
-      <c r="E96" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="F96" s="47" t="s">
-        <v>568</v>
-      </c>
-      <c r="G96" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>586</v>
-      </c>
-      <c r="D97" s="47" t="s">
-        <v>577</v>
-      </c>
-      <c r="E97" s="47" t="s">
-        <v>578</v>
-      </c>
-      <c r="F97" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="G97" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="C98" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D98" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="E98" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="F98" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="G98" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="36" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>589</v>
-      </c>
-      <c r="D99" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="E99" s="47" t="s">
-        <v>590</v>
-      </c>
-      <c r="F99" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="G99" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47"/>
-      <c r="L99" s="36" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" s="47" t="s">
-        <v>596</v>
-      </c>
-      <c r="C100" s="47" t="s">
-        <v>600</v>
-      </c>
-      <c r="D100" s="47" t="s">
-        <v>599</v>
-      </c>
-      <c r="E100" s="47" t="s">
-        <v>598</v>
-      </c>
-      <c r="F100" s="47" t="s">
-        <v>568</v>
-      </c>
-      <c r="G100" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47"/>
-      <c r="L100" s="36" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="C101" s="47" t="s">
-        <v>602</v>
-      </c>
-      <c r="D101" s="47" t="s">
-        <v>603</v>
-      </c>
-      <c r="E101" s="47" t="s">
-        <v>604</v>
-      </c>
-      <c r="F101" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="G101" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="47"/>
-      <c r="K101" s="47"/>
-      <c r="L101" s="36" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" s="47" t="s">
-        <v>610</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>607</v>
-      </c>
-      <c r="D102" s="47" t="s">
-        <v>608</v>
-      </c>
-      <c r="E102" s="47" t="s">
-        <v>609</v>
-      </c>
-      <c r="F102" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="G102" s="47" t="s">
-        <v>621</v>
-      </c>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="47"/>
-      <c r="L102" s="36" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="D103" s="47" t="s">
-        <v>613</v>
-      </c>
-      <c r="E103" s="47" t="s">
-        <v>614</v>
-      </c>
-      <c r="F103" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="G103" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="47"/>
-      <c r="L103" s="36" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="C104" s="47" t="s">
-        <v>617</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>603</v>
-      </c>
-      <c r="E104" s="47" t="s">
-        <v>604</v>
-      </c>
-      <c r="F104" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="G104" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="47"/>
-      <c r="L104" s="36" t="s">
-        <v>619</v>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O98" xr:uid="{5A7AC700-AF53-4611-8BE7-90A936EC9D18}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Shotgun"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="L8:L46"/>
-    <mergeCell ref="L47:L91"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="L8" r:id="rId1" xr:uid="{2381A80A-08B7-49EA-85C8-703C52A7A630}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>